--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gowtham Muruganandam\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganeshramm\Documents\heroku-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A9A46C-B4D3-4B12-862F-20AC60AA100C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFFFD73-88DD-4505-955B-A45686A1EED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B8FEB4E-3C94-480D-A9AA-EF76BE773973}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A9B308-0C53-46CA-AF7F-370F95754D64}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,6 +487,11 @@
         <v>76000</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>23628</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
